--- a/public/assets/template2.xlsx
+++ b/public/assets/template2.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="PortListNew">#REF!</definedName>
     <definedName name="KindOfPackageList">#REF!</definedName>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>DANH SÁCH VẬN ĐƠN GOM HÀNG</t>
   </si>
@@ -554,9 +551,6 @@
   </si>
   <si>
     <t>CN01</t>
-  </si>
-  <si>
-    <t>/</t>
   </si>
   <si>
     <r>
@@ -1934,21 +1928,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="List of House bill of lading"/>
-      <sheetName val="Cargo manifest"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2212,10 +2191,33 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="19.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="19.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="19.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="18.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="18.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="17.4444444444444" customWidth="1"/>
+    <col min="10" max="11" width="17.7777777777778" customWidth="1"/>
+    <col min="12" max="12" width="21.4444444444444" customWidth="1"/>
+    <col min="13" max="13" width="15.1111111111111" customWidth="1"/>
+    <col min="14" max="14" width="16.4444444444444" customWidth="1"/>
+    <col min="15" max="15" width="17.8888888888889" customWidth="1"/>
+    <col min="16" max="16" width="18.6666666666667" customWidth="1"/>
+    <col min="17" max="17" width="17.2222222222222" customWidth="1"/>
+    <col min="18" max="18" width="18.2222222222222" customWidth="1"/>
+    <col min="19" max="19" width="16.5555555555556" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
+    <col min="21" max="21" width="11.6666666666667" customWidth="1"/>
+    <col min="22" max="22" width="15" customWidth="1"/>
+    <col min="23" max="23" width="13.2222222222222" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:26">
       <c r="A1" s="1" t="s">
@@ -2277,7 +2279,7 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" ht="141.15" spans="1:26">
+    <row r="3" ht="78.75" spans="1:26">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -2353,7 +2355,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" ht="17.1" spans="1:26">
+    <row r="4" ht="154" customHeight="1" spans="1:26">
       <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
@@ -2367,12 +2369,8 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>29</v>
-      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
@@ -2419,25 +2417,25 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" ht="94.35" spans="1:26">
+    <row r="6" ht="47.55" spans="1:26">
       <c r="A6" s="10"/>
       <c r="B6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="12"/>
@@ -2459,7 +2457,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
     </row>
-    <row r="7" ht="15.6" spans="1:26">
+    <row r="7" ht="116" customHeight="1" spans="1:26">
       <c r="A7" s="10"/>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
@@ -2545,13 +2543,13 @@
     </row>
     <row r="10" ht="15.6" spans="1:26">
       <c r="A10" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="24"/>
       <c r="E10" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="10"/>
